--- a/NODE/box.xlsx
+++ b/NODE/box.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="8160" tabRatio="938" firstSheet="41"/>
+    <workbookView windowWidth="19200" windowHeight="8160" tabRatio="938" firstSheet="41" activeTab="54"/>
   </bookViews>
   <sheets>
     <sheet name="01" sheetId="1" r:id="rId1"/>
@@ -77,14 +77,6 @@
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t xml:space="preserve">                                                </t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1135,7 +1127,7 @@
   <sheetPr/>
   <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -1464,7 +1456,7 @@
   <sheetPr/>
   <dimension ref="A1:D151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -1876,7 +1868,7 @@
   <sheetPr/>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -2155,7 +2147,7 @@
   <sheetPr/>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -2430,7 +2422,7 @@
   <sheetPr/>
   <dimension ref="A1:D158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -3092,7 +3084,7 @@
   <sheetPr/>
   <dimension ref="A1:D158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -3628,7 +3620,7 @@
   <sheetPr/>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -3907,7 +3899,7 @@
   <sheetPr/>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -4184,7 +4176,7 @@
   <sheetPr/>
   <dimension ref="A1:D104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -4463,7 +4455,7 @@
   <sheetPr/>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -4738,7 +4730,7 @@
   <sheetPr/>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -5017,7 +5009,7 @@
   <sheetPr/>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -5296,7 +5288,7 @@
   <sheetPr/>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -5575,7 +5567,7 @@
   <sheetPr/>
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -5860,7 +5852,7 @@
   <sheetPr/>
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -6139,7 +6131,7 @@
   <sheetPr/>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -6418,7 +6410,7 @@
   <sheetPr/>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -6645,7 +6637,7 @@
   <sheetPr/>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -6921,7 +6913,7 @@
   <sheetPr/>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -7199,7 +7191,7 @@
   <sheetPr/>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -7478,7 +7470,7 @@
   <sheetPr/>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -7757,7 +7749,7 @@
   <sheetPr/>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -7998,7 +7990,7 @@
   <sheetPr/>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -8273,7 +8265,7 @@
   <sheetPr/>
   <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -8552,7 +8544,7 @@
   <sheetPr/>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -8805,7 +8797,7 @@
   <sheetPr/>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -9084,7 +9076,7 @@
   <sheetPr/>
   <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -9420,7 +9412,7 @@
   <sheetPr/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -9651,7 +9643,7 @@
   <sheetPr/>
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -9949,7 +9941,7 @@
   <sheetPr/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -10180,7 +10172,7 @@
   <sheetPr/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -10411,7 +10403,7 @@
   <sheetPr/>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -10686,7 +10678,7 @@
   <sheetPr/>
   <dimension ref="A1:G135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -11298,7 +11290,7 @@
   <sheetPr/>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -11576,7 +11568,7 @@
   <sheetPr/>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -11854,7 +11846,7 @@
   <sheetPr/>
   <dimension ref="A1:G135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -12466,7 +12458,7 @@
   <sheetPr/>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -12744,7 +12736,7 @@
   <sheetPr/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -12977,7 +12969,7 @@
   <sheetPr/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -13209,7 +13201,7 @@
   <sheetPr/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -13443,7 +13435,7 @@
   <sheetPr/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -13676,7 +13668,7 @@
   <sheetPr/>
   <dimension ref="A1:G126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -14154,7 +14146,7 @@
   <sheetPr/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -14387,7 +14379,7 @@
   <sheetPr/>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -14627,7 +14619,7 @@
   <sheetPr/>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -14902,7 +14894,7 @@
   <sheetPr/>
   <dimension ref="A1:D134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -15475,7 +15467,7 @@
   <sheetPr/>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -15753,7 +15745,7 @@
   <sheetPr/>
   <dimension ref="A1:D131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -16400,7 +16392,7 @@
   <sheetPr/>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -16679,7 +16671,7 @@
   <sheetPr/>
   <dimension ref="A1:D117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -17199,13 +17191,13 @@
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="25.5" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="25.5" customHeight="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9.14159292035398" style="1"/>
     <col min="2" max="4" width="10.6194690265487" style="2"/>
@@ -17394,7 +17386,7 @@
         <v>15824</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:6">
+    <row r="14" customHeight="1" spans="1:4">
       <c r="A14" s="3">
         <v>3391</v>
       </c>
@@ -17406,9 +17398,6 @@
       </c>
       <c r="D14" s="3">
         <v>15874</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
@@ -17482,7 +17471,7 @@
   <sheetPr/>
   <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -17622,7 +17611,7 @@
   <sheetPr/>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -17898,7 +17887,7 @@
   <sheetPr/>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -18177,7 +18166,7 @@
   <sheetPr/>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -18458,7 +18447,7 @@
   <sheetPr/>
   <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
